--- a/ctl-site/src/assets/PROJETOS/PROJETO_4.xlsx
+++ b/ctl-site/src/assets/PROJETOS/PROJETO_4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\ctl-angular\ctl-angular\src\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\ctl-site\ctl-site\src\assets\PROJETOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CDEEF0-86A1-4161-AF60-1202B2DD1E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F96A1F-141D-42A2-ACBF-1AB18415E41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3996" yWindow="708" windowWidth="17280" windowHeight="10632" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet_TEST_1" sheetId="1" r:id="rId1"/>
@@ -467,7 +467,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -485,22 +485,21 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="2" spans="1:3" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" t="e" vm="1">
+      <c r="C2" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" t="e" vm="2">
+      <c r="C3" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" t="e" vm="3">
-        <v>#VALUE!</v>
-      </c>
-    </row>
+    <row r="4" spans="1:3" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
